--- a/webscript/usat/usat-commodities.xlsx
+++ b/webscript/usat/usat-commodities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="44">
   <si>
     <t>comp_count</t>
   </si>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -856,16 +856,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16">
-        <v>19910331</v>
+        <v>19901231</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -874,21 +874,21 @@
         <v>43</v>
       </c>
       <c r="G16">
-        <v>19910101</v>
+        <v>19901001</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>19910630</v>
+        <v>19910331</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -897,21 +897,21 @@
         <v>43</v>
       </c>
       <c r="G17">
-        <v>19910401</v>
+        <v>19910101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18">
-        <v>19910930</v>
+        <v>19910630</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -920,21 +920,21 @@
         <v>43</v>
       </c>
       <c r="G18">
-        <v>19910701</v>
+        <v>19910401</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19">
-        <v>19911231</v>
+        <v>19910930</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -943,21 +943,21 @@
         <v>43</v>
       </c>
       <c r="G19">
-        <v>19911001</v>
+        <v>19910701</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>19920331</v>
+        <v>19911231</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -966,21 +966,21 @@
         <v>43</v>
       </c>
       <c r="G20">
-        <v>19920101</v>
+        <v>19911001</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>19920630</v>
+        <v>19920331</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -989,21 +989,21 @@
         <v>43</v>
       </c>
       <c r="G21">
-        <v>19920401</v>
+        <v>19920101</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>19920930</v>
+        <v>19920630</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1012,21 +1012,21 @@
         <v>43</v>
       </c>
       <c r="G22">
-        <v>19920701</v>
+        <v>19920401</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>19921231</v>
+        <v>19920930</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1035,21 +1035,21 @@
         <v>43</v>
       </c>
       <c r="G23">
-        <v>19921001</v>
+        <v>19920701</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24">
-        <v>19930331</v>
+        <v>19921231</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1058,21 +1058,21 @@
         <v>43</v>
       </c>
       <c r="G24">
-        <v>19930101</v>
+        <v>19921001</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25">
-        <v>19930630</v>
+        <v>19930331</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>43</v>
       </c>
       <c r="G25">
-        <v>19930401</v>
+        <v>19930101</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1092,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>19930930</v>
+        <v>19930630</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -1104,21 +1104,21 @@
         <v>43</v>
       </c>
       <c r="G26">
-        <v>19930701</v>
+        <v>19930401</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27">
-        <v>19931231</v>
+        <v>19930930</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1127,21 +1127,21 @@
         <v>43</v>
       </c>
       <c r="G27">
-        <v>19931001</v>
+        <v>19930701</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28">
-        <v>19940331</v>
+        <v>19931231</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1150,21 +1150,21 @@
         <v>43</v>
       </c>
       <c r="G28">
-        <v>19940101</v>
+        <v>19931001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>19940630</v>
+        <v>19940331</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1173,21 +1173,21 @@
         <v>43</v>
       </c>
       <c r="G29">
-        <v>19940401</v>
+        <v>19940101</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>19940930</v>
+        <v>19940630</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1196,21 +1196,21 @@
         <v>43</v>
       </c>
       <c r="G30">
-        <v>19940701</v>
+        <v>19940401</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>19941231</v>
+        <v>19940930</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1219,21 +1219,21 @@
         <v>43</v>
       </c>
       <c r="G31">
-        <v>19941001</v>
+        <v>19940701</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
-        <v>19950331</v>
+        <v>19941231</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1242,21 +1242,21 @@
         <v>43</v>
       </c>
       <c r="G32">
-        <v>19950101</v>
+        <v>19941001</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>19950630</v>
+        <v>19950331</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1265,21 +1265,21 @@
         <v>43</v>
       </c>
       <c r="G33">
-        <v>19950401</v>
+        <v>19950101</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>19950930</v>
+        <v>19950630</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1288,21 +1288,21 @@
         <v>43</v>
       </c>
       <c r="G34">
-        <v>19950701</v>
+        <v>19950401</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35">
-        <v>19951231</v>
+        <v>19950930</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1311,21 +1311,21 @@
         <v>43</v>
       </c>
       <c r="G35">
-        <v>19951001</v>
+        <v>19950701</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
-        <v>19960331</v>
+        <v>19951231</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1334,21 +1334,21 @@
         <v>43</v>
       </c>
       <c r="G36">
-        <v>19960101</v>
+        <v>19951001</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37">
-        <v>19960630</v>
+        <v>19960331</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1357,21 +1357,21 @@
         <v>43</v>
       </c>
       <c r="G37">
-        <v>19960401</v>
+        <v>19960101</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>19960930</v>
+        <v>19960630</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1380,30 +1380,30 @@
         <v>43</v>
       </c>
       <c r="G38">
-        <v>19960701</v>
+        <v>19960401</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>19961231</v>
+        <v>19960930</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>43</v>
       </c>
       <c r="G39">
-        <v>19961001</v>
+        <v>19960701</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>19961231</v>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>19961231</v>
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>19961231</v>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>19961231</v>
@@ -1503,22 +1503,22 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>19970331</v>
+        <v>19961231</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
         <v>43</v>
       </c>
       <c r="G44">
-        <v>19970101</v>
+        <v>19961001</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1526,22 +1526,22 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>19970630</v>
+        <v>19970331</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>43</v>
       </c>
       <c r="G45">
-        <v>19970401</v>
+        <v>19970101</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>19970630</v>
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>19970630</v>
@@ -1595,22 +1595,22 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>19970930</v>
+        <v>19970630</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>43</v>
       </c>
       <c r="G48">
-        <v>19970701</v>
+        <v>19970401</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>19970930</v>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>19970930</v>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51">
         <v>19970930</v>
@@ -1687,36 +1687,36 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52">
-        <v>19971231</v>
+        <v>19970930</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>43</v>
       </c>
       <c r="G52">
-        <v>19971001</v>
+        <v>19970701</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>19980331</v>
+        <v>19971231</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1725,21 +1725,21 @@
         <v>43</v>
       </c>
       <c r="G53">
-        <v>19980101</v>
+        <v>19971001</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>19980630</v>
+        <v>19980331</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1748,21 +1748,21 @@
         <v>43</v>
       </c>
       <c r="G54">
-        <v>19980401</v>
+        <v>19980101</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C55">
-        <v>19980930</v>
+        <v>19980630</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1771,21 +1771,21 @@
         <v>43</v>
       </c>
       <c r="G55">
-        <v>19980701</v>
+        <v>19980401</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56">
-        <v>19981231</v>
+        <v>19980930</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1794,21 +1794,21 @@
         <v>43</v>
       </c>
       <c r="G56">
-        <v>19981001</v>
+        <v>19980701</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57">
-        <v>19990331</v>
+        <v>19981231</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1817,21 +1817,21 @@
         <v>43</v>
       </c>
       <c r="G57">
-        <v>19990101</v>
+        <v>19981001</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>19990630</v>
+        <v>19990331</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1840,21 +1840,21 @@
         <v>43</v>
       </c>
       <c r="G58">
-        <v>19990401</v>
+        <v>19990101</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C59">
-        <v>19990930</v>
+        <v>19990630</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1863,21 +1863,21 @@
         <v>43</v>
       </c>
       <c r="G59">
-        <v>19990701</v>
+        <v>19990401</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60">
-        <v>19991231</v>
+        <v>19990930</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1886,21 +1886,21 @@
         <v>43</v>
       </c>
       <c r="G60">
-        <v>19991001</v>
+        <v>19990701</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C61">
-        <v>20000331</v>
+        <v>19991231</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1909,18 +1909,18 @@
         <v>43</v>
       </c>
       <c r="G61">
-        <v>20000101</v>
+        <v>19991001</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C62">
-        <v>20000630</v>
+        <v>20000331</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -1932,21 +1932,21 @@
         <v>43</v>
       </c>
       <c r="G62">
-        <v>20000401</v>
+        <v>20000101</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63">
-        <v>20000930</v>
+        <v>20000630</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1955,21 +1955,21 @@
         <v>43</v>
       </c>
       <c r="G63">
-        <v>20000701</v>
+        <v>20000401</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>20001231</v>
+        <v>20000930</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>43</v>
       </c>
       <c r="G64">
-        <v>20001001</v>
+        <v>20000701</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1986,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C65">
-        <v>20010331</v>
+        <v>20001231</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2001,21 +2001,21 @@
         <v>43</v>
       </c>
       <c r="G65">
-        <v>20010101</v>
+        <v>20001001</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>20010630</v>
+        <v>20010331</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2024,21 +2024,21 @@
         <v>43</v>
       </c>
       <c r="G66">
-        <v>20010401</v>
+        <v>20010101</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67">
-        <v>20010930</v>
+        <v>20010630</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>43</v>
       </c>
       <c r="G67">
-        <v>20010701</v>
+        <v>20010401</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2055,13 +2055,13 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>20011231</v>
+        <v>20010930</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>43</v>
       </c>
       <c r="G68">
-        <v>20011001</v>
+        <v>20010701</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2078,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C69">
-        <v>20020331</v>
+        <v>20011231</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2093,21 +2093,21 @@
         <v>43</v>
       </c>
       <c r="G69">
-        <v>20020101</v>
+        <v>20011001</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70">
-        <v>20020630</v>
+        <v>20020331</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2116,21 +2116,21 @@
         <v>43</v>
       </c>
       <c r="G70">
-        <v>20020401</v>
+        <v>20020101</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71">
-        <v>20021231</v>
+        <v>20020630</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2139,21 +2139,21 @@
         <v>43</v>
       </c>
       <c r="G71">
-        <v>20021001</v>
+        <v>20020401</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72">
-        <v>20030630</v>
+        <v>20020930</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2162,21 +2162,21 @@
         <v>43</v>
       </c>
       <c r="G72">
-        <v>20030401</v>
+        <v>20020701</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73">
-        <v>20030930</v>
+        <v>20021231</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2185,21 +2185,21 @@
         <v>43</v>
       </c>
       <c r="G73">
-        <v>20030701</v>
+        <v>20021001</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74">
-        <v>20031231</v>
+        <v>20030630</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>43</v>
       </c>
       <c r="G74">
-        <v>20031001</v>
+        <v>20030401</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2219,7 +2219,7 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <v>20040331</v>
+        <v>20030930</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -2231,7 +2231,7 @@
         <v>43</v>
       </c>
       <c r="G75">
-        <v>20040101</v>
+        <v>20030701</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2242,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="C76">
-        <v>20040630</v>
+        <v>20031231</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -2254,21 +2254,21 @@
         <v>43</v>
       </c>
       <c r="G76">
-        <v>20040401</v>
+        <v>20031001</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77">
-        <v>20040930</v>
+        <v>20040331</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2277,21 +2277,21 @@
         <v>43</v>
       </c>
       <c r="G77">
-        <v>20040701</v>
+        <v>20040101</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78">
-        <v>20041231</v>
+        <v>20040630</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2300,7 +2300,7 @@
         <v>43</v>
       </c>
       <c r="G78">
-        <v>20041001</v>
+        <v>20040401</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2311,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="C79">
-        <v>20050630</v>
+        <v>20040930</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -2323,21 +2323,21 @@
         <v>43</v>
       </c>
       <c r="G79">
-        <v>20050401</v>
+        <v>20040701</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80">
-        <v>20050930</v>
+        <v>20041231</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2346,21 +2346,21 @@
         <v>43</v>
       </c>
       <c r="G80">
-        <v>20050701</v>
+        <v>20041001</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81">
-        <v>20051231</v>
+        <v>20050630</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2369,21 +2369,21 @@
         <v>43</v>
       </c>
       <c r="G81">
-        <v>20051001</v>
+        <v>20050401</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82">
-        <v>20060331</v>
+        <v>20050930</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2392,21 +2392,21 @@
         <v>43</v>
       </c>
       <c r="G82">
-        <v>20060101</v>
+        <v>20050701</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83">
-        <v>20060630</v>
+        <v>20051231</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2415,21 +2415,21 @@
         <v>43</v>
       </c>
       <c r="G83">
-        <v>20060401</v>
+        <v>20051001</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84">
-        <v>20060930</v>
+        <v>20060331</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2438,7 +2438,7 @@
         <v>43</v>
       </c>
       <c r="G84">
-        <v>20060701</v>
+        <v>20060101</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2449,7 +2449,7 @@
         <v>7</v>
       </c>
       <c r="C85">
-        <v>20061231</v>
+        <v>20060630</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -2461,21 +2461,21 @@
         <v>43</v>
       </c>
       <c r="G85">
-        <v>20061001</v>
+        <v>20060401</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86">
-        <v>20070331</v>
+        <v>20060930</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2484,18 +2484,18 @@
         <v>43</v>
       </c>
       <c r="G86">
-        <v>20070101</v>
+        <v>20060701</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>20070630</v>
+        <v>20061231</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -2507,21 +2507,21 @@
         <v>43</v>
       </c>
       <c r="G87">
-        <v>20070401</v>
+        <v>20061001</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88">
-        <v>20070930</v>
+        <v>20070331</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2530,21 +2530,21 @@
         <v>43</v>
       </c>
       <c r="G88">
-        <v>20070701</v>
+        <v>20070101</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C89">
-        <v>20071231</v>
+        <v>20070630</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2553,21 +2553,21 @@
         <v>43</v>
       </c>
       <c r="G89">
-        <v>20071001</v>
+        <v>20070401</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90">
-        <v>20080331</v>
+        <v>20070930</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2576,21 +2576,21 @@
         <v>43</v>
       </c>
       <c r="G90">
-        <v>20080101</v>
+        <v>20070701</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C91">
-        <v>20080630</v>
+        <v>20071231</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2599,7 +2599,7 @@
         <v>43</v>
       </c>
       <c r="G91">
-        <v>20080401</v>
+        <v>20071001</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2607,13 +2607,13 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C92">
-        <v>20080930</v>
+        <v>20080331</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2622,21 +2622,21 @@
         <v>43</v>
       </c>
       <c r="G92">
-        <v>20080701</v>
+        <v>20080101</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C93">
-        <v>20081231</v>
+        <v>20080630</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2645,21 +2645,21 @@
         <v>43</v>
       </c>
       <c r="G93">
-        <v>20081001</v>
+        <v>20080401</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C94">
-        <v>20090331</v>
+        <v>20080930</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2668,21 +2668,21 @@
         <v>43</v>
       </c>
       <c r="G94">
-        <v>20090101</v>
+        <v>20080701</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95">
-        <v>20090630</v>
+        <v>20081231</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2691,18 +2691,18 @@
         <v>43</v>
       </c>
       <c r="G95">
-        <v>20090401</v>
+        <v>20081001</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>20090930</v>
+        <v>20090331</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -2714,21 +2714,21 @@
         <v>43</v>
       </c>
       <c r="G96">
-        <v>20090701</v>
+        <v>20090101</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97">
-        <v>20100630</v>
+        <v>20090630</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2737,21 +2737,21 @@
         <v>43</v>
       </c>
       <c r="G97">
-        <v>20100401</v>
+        <v>20090401</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98">
-        <v>20100930</v>
+        <v>20090930</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2760,7 +2760,7 @@
         <v>43</v>
       </c>
       <c r="G98">
-        <v>20100701</v>
+        <v>20090701</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2768,53 +2768,53 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C99">
-        <v>20101231</v>
+        <v>20100630</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>43</v>
       </c>
       <c r="G99">
-        <v>20101001</v>
+        <v>20100401</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C100">
-        <v>20101231</v>
+        <v>20100930</v>
       </c>
       <c r="D100">
         <v>4</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>43</v>
       </c>
       <c r="G100">
-        <v>20101001</v>
+        <v>20100701</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C101">
         <v>20101231</v>
@@ -2837,22 +2837,22 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C102">
-        <v>20110331</v>
+        <v>20101231</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" t="s">
         <v>43</v>
       </c>
       <c r="G102">
-        <v>20110101</v>
+        <v>20101001</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2860,22 +2860,22 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C103">
-        <v>20110630</v>
+        <v>20101231</v>
       </c>
       <c r="D103">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F103" t="s">
         <v>43</v>
       </c>
       <c r="G103">
-        <v>20110401</v>
+        <v>20101001</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2883,22 +2883,22 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C104">
-        <v>20110630</v>
+        <v>20110331</v>
       </c>
       <c r="D104">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
         <v>43</v>
       </c>
       <c r="G104">
-        <v>20110401</v>
+        <v>20110101</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2906,22 +2906,22 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C105">
-        <v>20110930</v>
+        <v>20110630</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" t="s">
         <v>43</v>
       </c>
       <c r="G105">
-        <v>20110701</v>
+        <v>20110401</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2929,13 +2929,13 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C106">
-        <v>20111231</v>
+        <v>20110630</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -2944,7 +2944,7 @@
         <v>43</v>
       </c>
       <c r="G106">
-        <v>20111001</v>
+        <v>20110401</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2952,22 +2952,22 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C107">
-        <v>20111231</v>
+        <v>20110930</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
         <v>43</v>
       </c>
       <c r="G107">
-        <v>20111001</v>
+        <v>20110701</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2975,22 +2975,22 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C108">
-        <v>20120331</v>
+        <v>20111231</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F108" t="s">
         <v>43</v>
       </c>
       <c r="G108">
-        <v>20120101</v>
+        <v>20111001</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2998,13 +2998,13 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C109">
-        <v>20120630</v>
+        <v>20111231</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -3013,7 +3013,7 @@
         <v>43</v>
       </c>
       <c r="G109">
-        <v>20120401</v>
+        <v>20111001</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3021,82 +3021,82 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C110">
-        <v>20120630</v>
+        <v>20120331</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
         <v>43</v>
       </c>
       <c r="G110">
-        <v>20120401</v>
+        <v>20120101</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C111">
-        <v>20120930</v>
+        <v>20120630</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" t="s">
         <v>43</v>
       </c>
       <c r="G111">
-        <v>20120701</v>
+        <v>20120401</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C112">
-        <v>20121231</v>
+        <v>20120630</v>
       </c>
       <c r="D112">
         <v>3</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="s">
         <v>43</v>
       </c>
       <c r="G112">
-        <v>20121001</v>
+        <v>20120401</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>20130630</v>
+        <v>20120930</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -3105,21 +3105,21 @@
         <v>43</v>
       </c>
       <c r="G113">
-        <v>20130401</v>
+        <v>20120701</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>20130930</v>
+        <v>20121231</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -3128,7 +3128,7 @@
         <v>43</v>
       </c>
       <c r="G114">
-        <v>20130701</v>
+        <v>20121001</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3136,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>20131231</v>
+        <v>20130630</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3151,7 +3151,7 @@
         <v>43</v>
       </c>
       <c r="G115">
-        <v>20131001</v>
+        <v>20130401</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3159,22 +3159,22 @@
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C116">
-        <v>20140331</v>
+        <v>20130930</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
         <v>43</v>
       </c>
       <c r="G116">
-        <v>20140101</v>
+        <v>20130701</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3182,22 +3182,22 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C117">
-        <v>20140331</v>
+        <v>20131231</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
         <v>43</v>
       </c>
       <c r="G117">
-        <v>20140101</v>
+        <v>20131001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3205,22 +3205,22 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C118">
-        <v>20140630</v>
+        <v>20140331</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" t="s">
         <v>43</v>
       </c>
       <c r="G118">
-        <v>20140401</v>
+        <v>20140101</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3228,22 +3228,22 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C119">
-        <v>20140930</v>
+        <v>20140331</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119" t="s">
         <v>43</v>
       </c>
       <c r="G119">
-        <v>20140701</v>
+        <v>20140101</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3251,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C120">
-        <v>20141231</v>
+        <v>20140630</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>43</v>
       </c>
       <c r="G120">
-        <v>20141001</v>
+        <v>20140401</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3274,10 +3274,10 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C121">
-        <v>20150630</v>
+        <v>20140930</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -3289,21 +3289,21 @@
         <v>43</v>
       </c>
       <c r="G121">
-        <v>20150401</v>
+        <v>20140701</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122">
-        <v>20150930</v>
+        <v>20141231</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -3312,7 +3312,7 @@
         <v>43</v>
       </c>
       <c r="G122">
-        <v>20150701</v>
+        <v>20141001</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3323,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="C123">
-        <v>20151231</v>
+        <v>20150630</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3335,21 +3335,21 @@
         <v>43</v>
       </c>
       <c r="G123">
-        <v>20151001</v>
+        <v>20150401</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124">
-        <v>20160331</v>
+        <v>20150930</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3358,7 +3358,7 @@
         <v>43</v>
       </c>
       <c r="G124">
-        <v>20160101</v>
+        <v>20150701</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3369,7 +3369,7 @@
         <v>7</v>
       </c>
       <c r="C125">
-        <v>20161231</v>
+        <v>20151231</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3381,21 +3381,21 @@
         <v>43</v>
       </c>
       <c r="G125">
-        <v>20161001</v>
+        <v>20151001</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126">
-        <v>20170630</v>
+        <v>20160331</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -3404,7 +3404,7 @@
         <v>43</v>
       </c>
       <c r="G126">
-        <v>20170401</v>
+        <v>20160101</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3412,10 +3412,10 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C127">
-        <v>20170930</v>
+        <v>20161231</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3427,7 +3427,7 @@
         <v>43</v>
       </c>
       <c r="G127">
-        <v>20170701</v>
+        <v>20161001</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3438,7 +3438,7 @@
         <v>7</v>
       </c>
       <c r="C128">
-        <v>20180930</v>
+        <v>20170630</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3450,29 +3450,98 @@
         <v>43</v>
       </c>
       <c r="G128">
-        <v>20180701</v>
+        <v>20170401</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C129">
+        <v>20170930</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129">
+        <v>20170701</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>20171231</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130">
+        <v>20171001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>20180930</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>43</v>
+      </c>
+      <c r="G131">
+        <v>20180701</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
         <v>20181231</v>
       </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" t="s">
-        <v>43</v>
-      </c>
-      <c r="G129">
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>43</v>
+      </c>
+      <c r="G132">
         <v>20181001</v>
       </c>
     </row>
